--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1719.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1719.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6537892670920182</v>
+        <v>0.8337769508361816</v>
       </c>
       <c r="B1">
-        <v>1.773068349632586</v>
+        <v>1.854262113571167</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.067049551615426</v>
+        <v>1.95109236240387</v>
       </c>
       <c r="E1">
-        <v>1.465835793745424</v>
+        <v>1.034096717834473</v>
       </c>
     </row>
   </sheetData>
